--- a/service-system/src/main/resources/static/雷达厚度-2车道.xlsx
+++ b/service-system/src/main/resources/static/雷达厚度-2车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33348298-4E97-41ED-99DB-D1C58E18BF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B73A0-BDF1-4A33-B668-AEFFE366D057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匝道桥" sheetId="18" r:id="rId1"/>
@@ -2185,7 +2185,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2811,11 +2811,10 @@
     <mergeCell ref="G38:H38"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L           检测：&amp;C&amp;"Times New Roman,常规"                                      &amp;R   复核：</oddFooter>
+    <oddHeader>&amp;C&amp;10陕西交控工程技术有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -2825,8 +2824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3455,8 +3454,7 @@
   <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L          检测：&amp;R   复核：</oddFooter>
+    <oddHeader>&amp;C&amp;10陕西交控工程技术有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -10212,7 +10210,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10776,3268 +10774,6 @@
       <c r="D47" s="81"/>
       <c r="E47" s="81"/>
       <c r="F47" s="81"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="74"/>
-    </row>
-  </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A47"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L           检测：&amp;C&amp;"Times New Roman,常规"                                      &amp;R   复核：</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I47"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.375" style="83" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="64" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="65" customWidth="1"/>
-    <col min="5" max="5" width="8" style="65" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="65" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="66" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="66" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="66" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="62"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="94"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="97"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="85"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="86"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="86"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="86"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="75"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="86"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="75"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="86"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="73"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="86"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="73"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="86"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="73"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="86"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="86"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="76"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="86"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="73"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="86"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="74"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="86"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="74"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="86"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="74"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="86"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="74"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="86"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="74"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="86"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="74"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="86"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="74"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="86"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="74"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="86"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="74"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="86"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="74"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="86"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="74"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="86"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="74"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="86"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="74"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="86"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="74"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="86"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="74"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="86"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="74"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="86"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="74"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="86"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="74"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="86"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="74"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="86"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="74"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="86"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="74"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="86"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="74"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="86"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="74"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="86"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="74"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="86"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="74"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="86"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="74"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="86"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="74"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="86"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="74"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="86"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="74"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="86"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="74"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="86"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="74"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="86"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="74"/>
-    </row>
-  </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A47"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L           检测：&amp;C&amp;"Times New Roman,常规"                                                          &amp;R   复核：</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I47"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.375" style="83" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="64" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="65" customWidth="1"/>
-    <col min="5" max="5" width="8" style="65" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="65" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="66" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="66" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="66" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="62"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="94"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="97"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="85"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="86"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="86"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="86"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="75"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="86"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="75"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="86"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="73"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="86"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="73"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="86"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="73"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="86"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="86"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="76"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="86"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="73"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="86"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="74"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="86"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="74"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="86"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="74"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="86"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="74"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="86"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="74"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="86"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="74"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="86"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="74"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="86"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="74"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="86"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="74"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="86"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="74"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="86"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="74"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="86"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="74"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="86"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="74"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="86"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="74"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="86"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="74"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="86"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="74"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="86"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="74"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="86"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="74"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="86"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="74"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="86"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="74"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="86"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="74"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="86"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="74"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="86"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="74"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="86"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="74"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="86"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="74"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="86"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="74"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="86"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="74"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="86"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="74"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="86"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="74"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="86"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="74"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="86"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="74"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="86"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="74"/>
-    </row>
-  </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A47"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L           检测：&amp;R   复核：</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J44"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="77" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="78" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="78" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="77" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="68" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="77" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="68" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="68" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="79" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="62"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="F2" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="F3" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103"/>
-      <c r="B5" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="101"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="102"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="102"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="102"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="102"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="102"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="102"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="102"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="102"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="102"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="102"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="102"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="102"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="102"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="102"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="102"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="102"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="102"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="102"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="102"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="102"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="102"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="102"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="102"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="102"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="102"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="102"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="89"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="102"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="72"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="89"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="102"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="72"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="102"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="72"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="89"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="102"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="84"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="102"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="72"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="89"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="102"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="72"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="89"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="102"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="72"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="84"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="102"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J44"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A4:A44">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="between">
-      <formula>10</formula>
-      <formula>16.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D44">
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="between">
-      <formula>10</formula>
-      <formula>16.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G34">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="between">
-      <formula>10</formula>
-      <formula>16.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L        检测：&amp;R   复核：</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J44"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="77" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="78" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="78" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="77" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="68" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="77" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="68" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="68" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="79" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="62"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="F2" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="F3" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103"/>
-      <c r="B5" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="101"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="102"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="102"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="102"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="102"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="102"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="102"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="102"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="102"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="102"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="102"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="102"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="102"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="102"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="102"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="102"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="102"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="102"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="102"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="102"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="102"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="102"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="102"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="102"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="102"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="102"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="102"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="89"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="102"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="72"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="89"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="102"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="72"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="102"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="72"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="89"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="102"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="84"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="102"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="72"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="89"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="102"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="72"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="89"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="102"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="72"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="84"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="102"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J44"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A4:A44">
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="between">
-      <formula>10</formula>
-      <formula>16.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D44">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="between">
-      <formula>10</formula>
-      <formula>16.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G34">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="between">
-      <formula>10</formula>
-      <formula>16.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L        检测：&amp;R   复核：</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I47"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.375" style="63" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="64" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="65" customWidth="1"/>
-    <col min="5" max="5" width="8" style="65" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="65" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="66" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="66" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="66" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="62"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="94"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="97"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="86"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="86"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="86"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="75"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="86"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="75"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="86"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="73"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="86"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="73"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="86"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="73"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="86"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="86"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="76"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="86"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="73"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="86"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="74"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="86"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="74"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="86"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="74"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="86"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="74"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="86"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="74"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="86"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="74"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="86"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="74"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="86"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="74"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="86"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="74"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="86"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="74"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="86"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="74"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="86"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="74"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="86"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="74"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="86"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="74"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="86"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="74"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="86"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="74"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="86"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="74"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="86"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="74"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="86"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="74"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="86"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="74"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="86"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="74"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="86"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="74"/>
-    </row>
-    <row r="38" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="86"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="74"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="86"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="74"/>
-    </row>
-    <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="86"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="74"/>
-    </row>
-    <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="86"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="74"/>
-    </row>
-    <row r="42" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="86"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="74"/>
-    </row>
-    <row r="43" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="86"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="74"/>
-    </row>
-    <row r="44" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="86"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="74"/>
-    </row>
-    <row r="45" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="86"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="74"/>
-    </row>
-    <row r="46" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="86"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="74"/>
-    </row>
-    <row r="47" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="86"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
       <c r="G47" s="84"/>
       <c r="H47" s="84"/>
       <c r="I47" s="74"/>
@@ -14103,24 +10839,23 @@
   <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L          检测：&amp;R   复核：</oddFooter>
+    <oddHeader>&amp;C&amp;10陕西交控工程技术有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="63" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="83" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="64" customWidth="1"/>
     <col min="3" max="3" width="7.625" style="65" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="65" customWidth="1"/>
@@ -14134,7 +10869,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -14145,7 +10880,7 @@
       <c r="H1" s="91"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
@@ -14164,7 +10899,7 @@
       </c>
       <c r="I2" s="94"/>
     </row>
-    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
@@ -14183,16 +10918,16 @@
       </c>
       <c r="I3" s="97"/>
     </row>
-    <row r="4" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="105" t="s">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="85" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="90" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -14202,8 +10937,8 @@
       <c r="H4" s="88"/>
       <c r="I4" s="88"/>
     </row>
-    <row r="5" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="85"/>
       <c r="B5" s="87"/>
       <c r="C5" s="71" t="s">
         <v>12</v>
@@ -14221,464 +10956,464 @@
       <c r="H5" s="88"/>
       <c r="I5" s="88"/>
     </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="86"/>
       <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="84"/>
       <c r="H6" s="84"/>
       <c r="I6" s="73"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="86"/>
       <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="84"/>
       <c r="H7" s="84"/>
       <c r="I7" s="73"/>
     </row>
-    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="86"/>
       <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="89"/>
       <c r="H8" s="89"/>
       <c r="I8" s="75"/>
     </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="86"/>
       <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="89"/>
       <c r="H9" s="89"/>
       <c r="I9" s="75"/>
     </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="86"/>
       <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="84"/>
       <c r="H10" s="84"/>
       <c r="I10" s="73"/>
     </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="86"/>
       <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="89"/>
       <c r="H11" s="89"/>
       <c r="I11" s="73"/>
     </row>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="86"/>
       <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="84"/>
       <c r="H12" s="84"/>
       <c r="I12" s="73"/>
     </row>
-    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="86"/>
       <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
       <c r="I13" s="73"/>
     </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="86"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="89"/>
       <c r="H14" s="89"/>
       <c r="I14" s="76"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="86"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
       <c r="G15" s="84"/>
       <c r="H15" s="84"/>
       <c r="I15" s="73"/>
     </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="86"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="89"/>
       <c r="H16" s="89"/>
       <c r="I16" s="74"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="86"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="84"/>
       <c r="H17" s="84"/>
       <c r="I17" s="74"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="86"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
       <c r="G18" s="89"/>
       <c r="H18" s="89"/>
       <c r="I18" s="74"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="86"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="74"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="86"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
       <c r="I20" s="74"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="86"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
       <c r="I21" s="74"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="86"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
       <c r="I22" s="74"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="86"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
       <c r="I23" s="74"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="86"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
       <c r="G24" s="89"/>
       <c r="H24" s="89"/>
       <c r="I24" s="74"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="86"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
       <c r="G25" s="84"/>
       <c r="H25" s="84"/>
       <c r="I25" s="74"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="86"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
       <c r="G26" s="89"/>
       <c r="H26" s="89"/>
       <c r="I26" s="74"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="86"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
       <c r="G27" s="84"/>
       <c r="H27" s="84"/>
       <c r="I27" s="74"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="86"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
       <c r="I28" s="74"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="86"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
       <c r="I29" s="74"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="86"/>
       <c r="B30" s="72"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
       <c r="I30" s="74"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="86"/>
       <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
       <c r="I31" s="74"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="86"/>
       <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="74"/>
     </row>
-    <row r="33" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="86"/>
       <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
       <c r="I33" s="74"/>
     </row>
-    <row r="34" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="86"/>
       <c r="B34" s="72"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
       <c r="G34" s="89"/>
       <c r="H34" s="89"/>
       <c r="I34" s="74"/>
     </row>
-    <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="86"/>
       <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
       <c r="G35" s="84"/>
       <c r="H35" s="84"/>
       <c r="I35" s="74"/>
     </row>
-    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="86"/>
       <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
       <c r="G36" s="89"/>
       <c r="H36" s="89"/>
       <c r="I36" s="74"/>
     </row>
-    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="86"/>
       <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
       <c r="G37" s="84"/>
       <c r="H37" s="84"/>
       <c r="I37" s="74"/>
     </row>
-    <row r="38" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="86"/>
       <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
       <c r="G38" s="89"/>
       <c r="H38" s="89"/>
       <c r="I38" s="74"/>
     </row>
-    <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="86"/>
       <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
       <c r="I39" s="74"/>
     </row>
-    <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="86"/>
       <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
       <c r="I40" s="74"/>
     </row>
-    <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="86"/>
       <c r="B41" s="72"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
       <c r="I41" s="74"/>
     </row>
-    <row r="42" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="86"/>
       <c r="B42" s="72"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
       <c r="G42" s="84"/>
       <c r="H42" s="84"/>
       <c r="I42" s="74"/>
     </row>
-    <row r="43" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="86"/>
       <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
       <c r="I43" s="74"/>
     </row>
-    <row r="44" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="86"/>
       <c r="B44" s="72"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
       <c r="I44" s="74"/>
     </row>
-    <row r="45" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="86"/>
       <c r="B45" s="72"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
       <c r="G45" s="84"/>
       <c r="H45" s="84"/>
       <c r="I45" s="74"/>
     </row>
-    <row r="46" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="86"/>
       <c r="B46" s="72"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
       <c r="I46" s="74"/>
     </row>
-    <row r="47" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="86"/>
       <c r="B47" s="72"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
       <c r="G47" s="84"/>
       <c r="H47" s="84"/>
       <c r="I47" s="74"/>
@@ -14744,24 +11479,23 @@
   <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L          检测：&amp;R   复核：</oddFooter>
+    <oddHeader>&amp;C&amp;10陕西交控工程技术有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="63" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="83" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="64" customWidth="1"/>
     <col min="3" max="3" width="7.625" style="65" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="65" customWidth="1"/>
@@ -14786,7 +11520,7 @@
       <c r="H1" s="91"/>
       <c r="I1" s="91"/>
     </row>
-    <row r="2" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
@@ -14805,7 +11539,7 @@
       </c>
       <c r="I2" s="94"/>
     </row>
-    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
@@ -14824,16 +11558,16 @@
       </c>
       <c r="I3" s="97"/>
     </row>
-    <row r="4" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="105" t="s">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="85" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="90" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -14843,8 +11577,8 @@
       <c r="H4" s="88"/>
       <c r="I4" s="88"/>
     </row>
-    <row r="5" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="85"/>
       <c r="B5" s="87"/>
       <c r="C5" s="71" t="s">
         <v>12</v>
@@ -14862,466 +11596,466 @@
       <c r="H5" s="88"/>
       <c r="I5" s="88"/>
     </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="86"/>
       <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="84"/>
       <c r="H6" s="84"/>
       <c r="I6" s="73"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="86"/>
       <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="84"/>
       <c r="H7" s="84"/>
       <c r="I7" s="73"/>
     </row>
-    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="86"/>
       <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="89"/>
       <c r="H8" s="89"/>
       <c r="I8" s="75"/>
     </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="86"/>
       <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="89"/>
       <c r="H9" s="89"/>
       <c r="I9" s="75"/>
     </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="86"/>
       <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="84"/>
       <c r="H10" s="84"/>
       <c r="I10" s="73"/>
     </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="86"/>
       <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="89"/>
       <c r="H11" s="89"/>
       <c r="I11" s="73"/>
     </row>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="86"/>
       <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="84"/>
       <c r="H12" s="84"/>
       <c r="I12" s="73"/>
     </row>
-    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="86"/>
       <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
       <c r="I13" s="73"/>
     </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="86"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="89"/>
       <c r="H14" s="89"/>
       <c r="I14" s="76"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="86"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
       <c r="G15" s="84"/>
       <c r="H15" s="84"/>
       <c r="I15" s="73"/>
     </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="86"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="89"/>
       <c r="H16" s="89"/>
       <c r="I16" s="74"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="86"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="74"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="86"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="74"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="86"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
       <c r="G19" s="89"/>
       <c r="H19" s="89"/>
       <c r="I19" s="74"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="86"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
       <c r="I20" s="74"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="86"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
       <c r="I21" s="74"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="86"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
       <c r="I22" s="74"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="86"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="89"/>
       <c r="H23" s="89"/>
       <c r="I23" s="74"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="86"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
       <c r="I24" s="74"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="86"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
       <c r="I25" s="74"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="86"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
       <c r="G26" s="89"/>
       <c r="H26" s="89"/>
       <c r="I26" s="74"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="86"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
       <c r="G27" s="84"/>
       <c r="H27" s="84"/>
       <c r="I27" s="74"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="86"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
       <c r="I28" s="74"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="86"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
       <c r="G29" s="89"/>
       <c r="H29" s="89"/>
       <c r="I29" s="74"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="86"/>
       <c r="B30" s="72"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
       <c r="G30" s="84"/>
       <c r="H30" s="84"/>
       <c r="I30" s="74"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="86"/>
       <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
       <c r="G31" s="89"/>
       <c r="H31" s="89"/>
       <c r="I31" s="74"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="86"/>
       <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="74"/>
     </row>
-    <row r="33" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="86"/>
       <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
       <c r="I33" s="74"/>
     </row>
-    <row r="34" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="86"/>
       <c r="B34" s="72"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
       <c r="G34" s="89"/>
       <c r="H34" s="89"/>
       <c r="I34" s="74"/>
     </row>
-    <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="86"/>
       <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
       <c r="I35" s="74"/>
     </row>
-    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="86"/>
       <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
       <c r="I36" s="74"/>
     </row>
-    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="86"/>
       <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
       <c r="I37" s="74"/>
     </row>
-    <row r="38" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="86"/>
       <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
       <c r="G38" s="89"/>
       <c r="H38" s="89"/>
       <c r="I38" s="74"/>
     </row>
-    <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="86"/>
       <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
       <c r="I39" s="74"/>
     </row>
-    <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="86"/>
       <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
       <c r="I40" s="74"/>
     </row>
-    <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="86"/>
       <c r="B41" s="72"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
       <c r="G41" s="89"/>
       <c r="H41" s="89"/>
       <c r="I41" s="74"/>
     </row>
-    <row r="42" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="86"/>
       <c r="B42" s="72"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
       <c r="G42" s="84"/>
       <c r="H42" s="84"/>
       <c r="I42" s="74"/>
     </row>
-    <row r="43" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="86"/>
       <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
       <c r="G43" s="89"/>
       <c r="H43" s="89"/>
       <c r="I43" s="74"/>
     </row>
-    <row r="44" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="86"/>
       <c r="B44" s="72"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
       <c r="G44" s="89"/>
       <c r="H44" s="89"/>
       <c r="I44" s="74"/>
     </row>
-    <row r="45" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="86"/>
       <c r="B45" s="72"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
       <c r="G45" s="84"/>
       <c r="H45" s="84"/>
       <c r="I45" s="74"/>
     </row>
-    <row r="46" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="86"/>
       <c r="B46" s="72"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
       <c r="G46" s="89"/>
       <c r="H46" s="89"/>
       <c r="I46" s="74"/>
     </row>
-    <row r="47" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="15.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="86"/>
       <c r="B47" s="72"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
       <c r="I47" s="74"/>
     </row>
   </sheetData>
@@ -15385,8 +12119,3264 @@
   <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.47244094488188981"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L          检测：&amp;R   复核：</oddFooter>
+    <oddHeader>&amp;C&amp;10陕西交控工程技术有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="77" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="78" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="78" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="68" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="77" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="68" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="68" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="79" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="F2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="F3" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="104"/>
+      <c r="D4" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="104"/>
+      <c r="G4" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="104"/>
+      <c r="J4" s="101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="103"/>
+      <c r="B5" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="103"/>
+      <c r="E5" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="103"/>
+      <c r="H5" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="101"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="72"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="102"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="72"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="102"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="72"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="102"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="72"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="102"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="72"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="102"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="72"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="102"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="72"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="102"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="72"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="102"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="72"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="102"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="72"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="102"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="102"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="72"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="102"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="72"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="102"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="72"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="102"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="72"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="102"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="72"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="102"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="72"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="72"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="102"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="72"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="102"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="72"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="102"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="72"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="102"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="72"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="102"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="72"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="102"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="72"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="102"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="72"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="102"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="72"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="102"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="72"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="102"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="72"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="102"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="72"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="102"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="72"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="84"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="102"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="72"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="84"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="102"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="72"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="89"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="102"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="72"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="89"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="102"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="72"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="84"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="102"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="72"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="89"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="102"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="72"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="84"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="102"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="72"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="89"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="102"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="72"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="89"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="102"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="72"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="84"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J44"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A4:A44">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="between">
+      <formula>10</formula>
+      <formula>16.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D44">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="between">
+      <formula>10</formula>
+      <formula>16.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G34">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="between">
+      <formula>10</formula>
+      <formula>16.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;10陕西交控工程技术有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="77" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="78" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="78" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="68" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="77" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="68" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="68" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="79" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="F2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="F3" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="104"/>
+      <c r="D4" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="104"/>
+      <c r="G4" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="104"/>
+      <c r="J4" s="101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="103"/>
+      <c r="B5" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="103"/>
+      <c r="E5" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="103"/>
+      <c r="H5" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="101"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="72"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="102"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="72"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="102"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="72"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="102"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="72"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="102"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="72"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="102"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="72"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="102"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="72"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="102"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="72"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="102"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="72"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="102"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="72"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="102"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="102"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="72"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="102"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="72"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="102"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="72"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="102"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="72"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="102"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="72"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="102"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="72"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="72"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="102"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="72"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="102"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="72"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="102"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="72"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="102"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="72"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="102"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="72"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="102"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="72"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="102"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="72"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="102"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="72"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="102"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="72"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="102"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="72"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="102"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="72"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="102"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="72"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="84"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="102"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="72"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="84"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="102"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="72"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="89"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="102"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="72"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="89"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="102"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="72"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="84"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="102"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="72"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="89"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="102"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="72"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="84"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="102"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="72"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="89"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="102"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="72"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="89"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="102"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="72"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="84"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J44"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A4:A44">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="between">
+      <formula>10</formula>
+      <formula>16.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D44">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="between">
+      <formula>10</formula>
+      <formula>16.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G34">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="between">
+      <formula>10</formula>
+      <formula>16.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;10陕西交控工程技术有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="63" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="65" customWidth="1"/>
+    <col min="5" max="5" width="8" style="65" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="65" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="66" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="66" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="66" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="94"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="97"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="106"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="86"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="73"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="86"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="86"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="75"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="86"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="75"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="86"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="73"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="86"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="73"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="86"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="73"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="86"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="86"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="86"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="73"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="86"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="74"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="86"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="74"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="86"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="74"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="86"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="74"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="86"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="74"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="86"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="74"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="86"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="74"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="86"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="74"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="86"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="74"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="86"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="74"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="86"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="74"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="86"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="74"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="86"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="74"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="86"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="86"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="74"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="86"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="74"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="86"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="74"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="86"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="74"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="86"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="74"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="86"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="74"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="86"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="74"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="86"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="74"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="86"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="74"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="86"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="74"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="86"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="74"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="86"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="74"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="86"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="74"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="86"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="74"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="86"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="74"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="86"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="74"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="86"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="74"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="86"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A47"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;10陕西交控工程技术有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="63" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="65" customWidth="1"/>
+    <col min="5" max="5" width="8" style="65" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="65" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="66" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="66" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="66" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="94"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="97"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="106"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="86"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="73"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="86"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="86"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="75"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="86"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="75"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="86"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="73"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="86"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="73"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="86"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="73"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="86"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="86"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="86"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="73"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="86"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="74"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="86"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="74"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="86"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="74"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="86"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="74"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="86"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="74"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="86"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="74"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="86"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="74"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="86"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="74"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="86"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="74"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="86"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="74"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="86"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="74"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="86"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="74"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="86"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="74"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="86"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="86"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="74"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="86"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="74"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="86"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="74"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="86"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="74"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="86"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="74"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="86"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="74"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="86"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="74"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="86"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="74"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="86"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="74"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="86"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="74"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="86"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="74"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="86"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="74"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="86"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="74"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="86"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="74"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="86"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="74"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="86"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="74"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="86"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="74"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="86"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A47"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;10陕西交控工程技术有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="63" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="65" customWidth="1"/>
+    <col min="5" max="5" width="8" style="65" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="65" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="66" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="66" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="66" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="94"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="97"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="106"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="86"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="73"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="86"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="86"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="75"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="86"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="75"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="86"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="73"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="86"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="73"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="86"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="73"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="86"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="86"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="86"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="73"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="86"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="74"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="86"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="74"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="86"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="74"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="86"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="74"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="86"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="74"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="86"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="74"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="86"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="74"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="86"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="74"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="86"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="74"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="86"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="74"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="86"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="74"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="86"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="74"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="86"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="74"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="86"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="86"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="74"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="86"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="74"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="86"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="74"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="86"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="74"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="86"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="74"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="86"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="74"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="86"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="74"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="86"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="74"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="86"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="74"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="86"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="74"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="86"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="74"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="86"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="74"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="86"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="74"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="86"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="74"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="86"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="74"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="86"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="74"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="86"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="74"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="86"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A47"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;10陕西交控工程技术有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
